--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Any dates before Feb 28, 1900 are one day off</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Read qvx files directly from the internet</t>
   </si>
   <si>
-    <t>Solution</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Regular expression fix</t>
   </si>
   <si>
-    <t>Saturday</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -87,7 +81,7 @@
     <t>Deal with missing cells (esp. with dates from strings,and verify nothing else was broken by this)</t>
   </si>
   <si>
-    <t>Establish and run test cases</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -449,19 +443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,125 +462,117 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Any dates before Feb 28, 1900 are one day off</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Read qvx files directly from the internet</t>
   </si>
   <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
     <t>Time format (Writer)</t>
   </si>
   <si>
@@ -69,19 +63,22 @@
     <t>Regular expression fix</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
     <t>Double check that FixPt Decimals still works</t>
   </si>
   <si>
     <t>Deal with missing cells (esp. with dates from strings,and verify nothing else was broken by this)</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Finished?</t>
+  </si>
+  <si>
+    <t>*Reader discards pre-1900 dates</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Functioning reader and writer prototypes</t>
   </si>
 </sst>
 </file>
@@ -111,24 +108,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -153,10 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,15 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,121 +445,111 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
+      <c r="A2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="5"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
